--- a/Sample.xlsx
+++ b/Sample.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\WorkSpace\SeleniumExample\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{3767113E-E316-46A5-81B9-352A767DAF0D}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{683A9B56-71EB-4F97-950F-53BBE85D2823}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{AD186D06-7A28-4BE3-8E2C-E43862476B6B}"/>
   </bookViews>
@@ -33,13 +33,22 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2" uniqueCount="2">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4" uniqueCount="4">
   <si>
-    <t>User1</t>
+    <t>id</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>User2</t>
+    <t>type</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>text</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>select</t>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
 </file>
@@ -403,10 +412,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D9B69909-1DD3-41C1-9F10-B239BE7BCA8F}">
-  <dimension ref="A1:B2"/>
+  <dimension ref="A1:B3"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B2" sqref="B2"/>
+      <selection activeCell="B3" sqref="B3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.2" x14ac:dyDescent="0.3"/>
@@ -415,16 +424,24 @@
       <c r="A1" t="s">
         <v>0</v>
       </c>
-      <c r="B1">
-        <v>123456</v>
+      <c r="B1" t="s">
+        <v>1</v>
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A2" t="s">
-        <v>1</v>
-      </c>
-      <c r="B2">
-        <v>654321</v>
+      <c r="A2">
+        <v>123</v>
+      </c>
+      <c r="B2" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A3">
+        <v>456</v>
+      </c>
+      <c r="B3" t="s">
+        <v>3</v>
       </c>
     </row>
   </sheetData>
